--- a/trunk/Portfolio/Test Results/Indoor/IndoorGraph.xlsx
+++ b/trunk/Portfolio/Test Results/Indoor/IndoorGraph.xlsx
@@ -83,6 +83,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="1"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -91,9 +92,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.1502187226596671E-2"/>
-          <c:y val="3.7249522914113375E-2"/>
-          <c:w val="0.52924781277340371"/>
-          <c:h val="0.87609556268153088"/>
+          <c:y val="3.7249522914113396E-2"/>
+          <c:w val="0.52924781277340394"/>
+          <c:h val="0.87609556268153133"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -260,33 +261,35 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94719360"/>
-        <c:axId val="94721536"/>
+        <c:axId val="75628928"/>
+        <c:axId val="75630464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94719360"/>
+        <c:axId val="75628928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94721536"/>
+        <c:crossAx val="75630464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94721536"/>
+        <c:axId val="75630464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.8"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94719360"/>
+        <c:crossAx val="75628928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -299,7 +302,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -312,13 +315,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -362,76 +365,6 @@
           </cell>
           <cell r="F2">
             <v>9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0.75987308434406009</v>
-          </cell>
-          <cell r="D4">
-            <v>0.72401569862685</v>
-          </cell>
-          <cell r="E4">
-            <v>0.73540353141205839</v>
-          </cell>
-          <cell r="F4">
-            <v>0.71588143122231263</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>0.75982725915388571</v>
-          </cell>
-          <cell r="D6">
-            <v>0.64601950460547675</v>
-          </cell>
-          <cell r="E6">
-            <v>0.66130750529987226</v>
-          </cell>
-          <cell r="F6">
-            <v>0.62710150860614478</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.78040058591795891</v>
-          </cell>
-          <cell r="D8">
-            <v>0.5294613700473797</v>
-          </cell>
-          <cell r="E8">
-            <v>0.51340278372717485</v>
-          </cell>
-          <cell r="F8">
-            <v>0.55132690995694733</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0.76926199040023813</v>
-          </cell>
-          <cell r="D10">
-            <v>0.57327490349535049</v>
-          </cell>
-          <cell r="E10">
-            <v>0.55605442840007047</v>
-          </cell>
-          <cell r="F10">
-            <v>0.75534486841427384</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>1.5647929311155377</v>
-          </cell>
-          <cell r="D12">
-            <v>1.095790190481104</v>
-          </cell>
-          <cell r="E12">
-            <v>0.83413889309517331</v>
-          </cell>
-          <cell r="F12">
-            <v>1.5875073288766417</v>
           </cell>
         </row>
       </sheetData>
@@ -729,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Portfolio/Test Results/Indoor/IndoorGraph.xlsx
+++ b/trunk/Portfolio/Test Results/Indoor/IndoorGraph.xlsx
@@ -19,30 +19,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
-    <t>CL</t>
+    <t>Number of anchor nodes</t>
   </si>
   <si>
-    <t>WCL</t>
+    <t>Centroid localization</t>
   </si>
   <si>
-    <t>MM</t>
+    <t>Relative position error (%)</t>
   </si>
   <si>
-    <t>TL</t>
+    <t>Standard deviation</t>
   </si>
   <si>
-    <t>LS TL</t>
+    <t>Weighted Centroild localization</t>
+  </si>
+  <si>
+    <t>Min-Max</t>
+  </si>
+  <si>
+    <t>Trilateration</t>
+  </si>
+  <si>
+    <t>Trilateration with least square</t>
+  </si>
+  <si>
+    <t>Indoor test: graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -57,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -65,15 +94,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +294,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:style val="1"/>
   <c:chart>
     <c:plotArea>
@@ -91,10 +303,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1502187226596671E-2"/>
-          <c:y val="3.7249522914113396E-2"/>
-          <c:w val="0.52924781277340394"/>
-          <c:h val="0.87609556268153133"/>
+          <c:x val="0.16877899649972089"/>
+          <c:y val="2.132025494249495E-2"/>
+          <c:w val="0.52924781277340405"/>
+          <c:h val="0.87609556268153155"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -128,7 +340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$H$4</c:f>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -156,7 +368,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$H$6</c:f>
+              <c:f>Sheet1!$B$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -184,7 +396,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$H$8</c:f>
+              <c:f>Sheet1!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -212,7 +424,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$H$10</c:f>
+              <c:f>Sheet1!$B$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -240,7 +452,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$12:$H$12</c:f>
+              <c:f>Sheet1!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -261,25 +473,48 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75628928"/>
-        <c:axId val="75630464"/>
+        <c:axId val="67932928"/>
+        <c:axId val="67935232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75628928"/>
+        <c:axId val="67932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> of anchor nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75630464"/>
+        <c:crossAx val="67935232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75630464"/>
+        <c:axId val="67935232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.8"/>
@@ -287,9 +522,32 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> position error (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75628928"/>
+        <c:crossAx val="67932928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -302,7 +560,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -312,16 +570,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293159</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>189440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560917</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>20107</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -376,9 +634,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,7 +674,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -486,7 +744,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -660,180 +918,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2:H13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:8">
-      <c r="E2">
+    <row r="1" spans="1:5" ht="23.25">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="C3" s="14">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="D3" s="14">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="E3" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="4:8">
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
+    <row r="4" spans="1:5" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.70416791917712651</v>
       </c>
-      <c r="F4">
+      <c r="C5" s="6">
         <v>0.71785351072921166</v>
       </c>
-      <c r="G4">
+      <c r="D5" s="6">
         <v>0.73614346861232793</v>
       </c>
-      <c r="H4">
+      <c r="E5" s="7">
         <v>0.71189483480800508</v>
       </c>
     </row>
-    <row r="5" spans="4:8">
-      <c r="E5">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
         <v>0.20854826015781505</v>
       </c>
-      <c r="F5">
+      <c r="C6" s="11">
         <v>0.16163603363797982</v>
       </c>
-      <c r="G5">
+      <c r="D6" s="11">
         <v>0.13787523427288165</v>
       </c>
-      <c r="H5">
+      <c r="E6" s="12">
         <v>0.13498962880186649</v>
       </c>
     </row>
-    <row r="6" spans="4:8">
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
+    <row r="7" spans="1:5" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
         <v>0.67039897747273691</v>
       </c>
-      <c r="F6">
+      <c r="C8" s="6">
         <v>0.64111000846480903</v>
       </c>
-      <c r="G6">
+      <c r="D8" s="6">
         <v>0.604365495719694</v>
       </c>
-      <c r="H6">
+      <c r="E8" s="7">
         <v>0.56771289987758589</v>
       </c>
     </row>
-    <row r="7" spans="4:8">
-      <c r="E7">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
         <v>0.28212500153809511</v>
       </c>
-      <c r="F7">
+      <c r="C9" s="11">
         <v>0.18705172739686915</v>
       </c>
-      <c r="G7">
+      <c r="D9" s="11">
         <v>0.21183156828635286</v>
       </c>
-      <c r="H7">
+      <c r="E9" s="12">
         <v>0.2954165902686024</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
-      <c r="D8" t="s">
+    <row r="10" spans="1:5" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="B11" s="5">
         <v>0.67330226370315394</v>
       </c>
-      <c r="F8">
+      <c r="C11" s="6">
         <v>0.58057280467504357</v>
       </c>
-      <c r="G8">
+      <c r="D11" s="6">
         <v>0.51960095371324566</v>
       </c>
-      <c r="H8">
+      <c r="E11" s="7">
         <v>0.60918569119614541</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
-      <c r="E9">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10">
         <v>0.33403153345355779</v>
       </c>
-      <c r="F9">
+      <c r="C12" s="11">
         <v>0.11263690838240147</v>
       </c>
-      <c r="G9">
+      <c r="D12" s="11">
         <v>0.22883761475953263</v>
       </c>
-      <c r="H9">
+      <c r="E12" s="12">
         <v>0.33350732378574305</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
-      <c r="D10" t="s">
+    <row r="13" spans="1:5" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.63352477240341021</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.2454727058420905</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.0052602656792646</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.69328031156217618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>0.63352477240341021</v>
-      </c>
-      <c r="F10">
-        <v>1.2454727058420905</v>
-      </c>
-      <c r="G10">
-        <v>1.0052602656792646</v>
-      </c>
-      <c r="H10">
-        <v>0.69328031156217618</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="E11">
+      <c r="B15" s="10">
         <v>0.24603977008655933</v>
       </c>
-      <c r="F11">
+      <c r="C15" s="11">
         <v>0.93823603398878974</v>
       </c>
-      <c r="G11">
+      <c r="D15" s="11">
         <v>0.98386900640309105</v>
       </c>
-      <c r="H11">
+      <c r="E15" s="12">
         <v>0.42125674995352869</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
+    <row r="16" spans="1:5" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5">
         <v>2.5785385445118529</v>
       </c>
-      <c r="F12">
+      <c r="C17" s="6">
         <v>3.2582358898730366</v>
       </c>
-      <c r="G12">
+      <c r="D17" s="6">
         <v>4.6995100631001918</v>
       </c>
-      <c r="H12">
+      <c r="E17" s="7">
         <v>2.7029666526029117</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
-      <c r="E13">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10">
         <v>4.5778675910960285</v>
       </c>
-      <c r="F13">
+      <c r="C18" s="11">
         <v>3.4127892883730184</v>
       </c>
-      <c r="G13">
+      <c r="D18" s="11">
         <v>6.0744285880903988</v>
       </c>
-      <c r="H13">
+      <c r="E18" s="12">
         <v>3.3755128433162129</v>
       </c>
     </row>
